--- a/test.xlsx
+++ b/test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagos\dev\pracExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB1B4046-7CF7-4E0E-9E75-DE60CC5AF0DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8738806-98B7-4020-A993-1BC7E2C9C3C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{1EBC0738-58CC-4BEF-AC2B-C25373C84A17}"/>
+    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1EBC0738-58CC-4BEF-AC2B-C25373C84A17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="test2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,9 +26,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>etstttttt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test2エクセルで更新</t>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -394,7 +402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415113D0-7290-491D-9EDE-3107FE5C1D50}">
   <dimension ref="C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -410,4 +418,26 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC716C75-949B-4815-91E2-2369BC9DFD6C}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagos\dev\pracExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8738806-98B7-4020-A993-1BC7E2C9C3C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFADB69-A247-4AFE-80D2-D9C610B1884D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1EBC0738-58CC-4BEF-AC2B-C25373C84A17}"/>
+    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1EBC0738-58CC-4BEF-AC2B-C25373C84A17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="test2" sheetId="2" r:id="rId2"/>
+    <sheet name="test3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>etstttttt</t>
     <phoneticPr fontId="1"/>
@@ -34,6 +35,16 @@
   <si>
     <t>test2エクセルで更新</t>
     <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test3用の更新シート</t>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
       <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -424,7 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC716C75-949B-4815-91E2-2369BC9DFD6C}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -440,4 +451,25 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0980794B-C219-4AFD-811C-324365186AA7}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagos\dev\pracExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagos\Documents\pracExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFADB69-A247-4AFE-80D2-D9C610B1884D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6E1811-CA11-4D05-9271-132A332FEB21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1EBC0738-58CC-4BEF-AC2B-C25373C84A17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="test2" sheetId="2" r:id="rId2"/>
-    <sheet name="test3" sheetId="3" r:id="rId3"/>
+    <sheet name="test4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,12 +40,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>test3用の更新シート</t>
-    <rPh sb="5" eb="6">
-      <t>ヨウ</t>
+    <t>test3シートを削除してtest4シートを挿入</t>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
     </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
+    <rPh sb="22" eb="24">
+      <t>ソウニュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -454,7 +454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0980794B-C219-4AFD-811C-324365186AA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A6B997-3EF4-479E-A2DE-1CFA685BAB95}">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -471,5 +471,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagos\dev\pracExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFADB69-A247-4AFE-80D2-D9C610B1884D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FC4EE5-8279-4329-9CFD-7DAAA8644D7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1EBC0738-58CC-4BEF-AC2B-C25373C84A17}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="test2" sheetId="2" r:id="rId2"/>
     <sheet name="test3" sheetId="3" r:id="rId3"/>
+    <sheet name="おまけ" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>etstttttt</t>
     <phoneticPr fontId="1"/>
@@ -46,6 +47,17 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おまけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test3シートに追記</t>
+    <rPh sb="9" eb="11">
+      <t>ツイキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -455,10 +467,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0980794B-C219-4AFD-811C-324365186AA7}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -468,8 +480,35 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9044E55-30C6-4972-A479-F01D100AA712}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagos\dev\pracExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FC4EE5-8279-4329-9CFD-7DAAA8644D7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA64312C-44B3-4A55-AC9E-9AB9A003E6D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1EBC0738-58CC-4BEF-AC2B-C25373C84A17}"/>
+    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{1EBC0738-58CC-4BEF-AC2B-C25373C84A17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="test2" sheetId="2" r:id="rId2"/>
     <sheet name="test3" sheetId="3" r:id="rId3"/>
-    <sheet name="おまけ" sheetId="4" r:id="rId4"/>
+    <sheet name="test4" sheetId="5" r:id="rId4"/>
+    <sheet name="おまけ" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>etstttttt</t>
     <phoneticPr fontId="1"/>
@@ -59,6 +60,36 @@
     <rPh sb="9" eb="11">
       <t>ツイキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test3シートを削除してtest4シートを挿入</t>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マージ後にlogを戻してtest4シートを移動して挿入</t>
+    <rPh sb="3" eb="4">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test3、おまけシートもそのまま</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -469,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0980794B-C219-4AFD-811C-324365186AA7}">
   <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -492,6 +523,38 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3837A5D-300B-43F7-B986-E439B1F574A0}">
+  <dimension ref="B2:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9044E55-30C6-4972-A479-F01D100AA712}">
   <dimension ref="B2"/>
   <sheetViews>
